--- a/src/test/resources/data/Test.xlsx
+++ b/src/test/resources/data/Test.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\ProjectsWorkSpace\2023\TestAutomation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D708908-5F09-4663-B1D5-C285ECEF1951}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B77C3-D790-4ADE-B10D-DAF2EDD8F740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
     <sheet name="Re" sheetId="2" r:id="rId2"/>
+    <sheet name="Titles" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>TCID</t>
   </si>
@@ -59,6 +60,24 @@
   </si>
   <si>
     <t>Pass</t>
+  </si>
+  <si>
+    <t>PageName</t>
+  </si>
+  <si>
+    <t>PageTitle</t>
+  </si>
+  <si>
+    <t>HomePage</t>
+  </si>
+  <si>
+    <t>LoginPage</t>
+  </si>
+  <si>
+    <t>Kamolini | Home</t>
+  </si>
+  <si>
+    <t>Kamolini | login</t>
   </si>
 </sst>
 </file>
@@ -379,7 +398,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -464,4 +483,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DE3609-A5D2-47B7-8380-57296029D450}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/Test.xlsx
+++ b/src/test/resources/data/Test.xlsx
@@ -8,16 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\ProjectsWorkSpace\2023\TestAutomation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D2B77C3-D790-4ADE-B10D-DAF2EDD8F740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AC02E-1C90-4BD6-8CBC-E06306F7412A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
     <sheet name="Re" sheetId="2" r:id="rId2"/>
     <sheet name="Titles" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>TCID</t>
   </si>
@@ -78,12 +82,79 @@
   </si>
   <si>
     <t>Kamolini | login</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Fname</t>
+  </si>
+  <si>
+    <t>Lname</t>
+  </si>
+  <si>
+    <t>(646) 575-4275</t>
+  </si>
+  <si>
+    <t>6465754275</t>
+  </si>
+  <si>
+    <t>1000.00</t>
+  </si>
+  <si>
+    <t>Mname</t>
+  </si>
+  <si>
+    <t>DOB</t>
+  </si>
+  <si>
+    <t>fsdfg</t>
+  </si>
+  <si>
+    <t>klgk</t>
+  </si>
+  <si>
+    <t>;h</t>
+  </si>
+  <si>
+    <t>;lh</t>
+  </si>
+  <si>
+    <t>lkl</t>
+  </si>
+  <si>
+    <t>lkhlk</t>
+  </si>
+  <si>
+    <t>lk</t>
+  </si>
+  <si>
+    <t>;lkj</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t>Column3</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>jgj</t>
+  </si>
+  <si>
+    <t>jghj</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00[$৳-845]_-;\-* #,##0.00[$৳-845]_-;_-* &quot;-&quot;??[$৳-845]_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_-* #,##0.0[$৳-845]_-;\-* #,##0.0[$৳-845]_-;_-* &quot;-&quot;??[$৳-845]_-;_-@_-"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,9 +184,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,6 +206,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9CC7190C-1C6A-4E24-AC37-B4D9AB6CDF9F}" name="Table1" displayName="Table1" ref="A1:G34" totalsRowShown="0">
+  <autoFilter ref="A1:G34" xr:uid="{9CC7190C-1C6A-4E24-AC37-B4D9AB6CDF9F}">
+    <filterColumn colId="4">
+      <filters blank="1"/>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C6107173-DB06-4CFC-995F-4A59B7B664C6}" name="Fname"/>
+    <tableColumn id="2" xr3:uid="{0772ED5D-4793-4690-AE88-C76AFC922868}" name="Lname"/>
+    <tableColumn id="3" xr3:uid="{E6DE84F4-2851-4129-ACE8-CCE59958DD69}" name="Mname"/>
+    <tableColumn id="4" xr3:uid="{C2282501-227B-459B-B3D3-CAAEEA6097B5}" name="DOB"/>
+    <tableColumn id="5" xr3:uid="{74A4C376-AEEA-4FC9-A440-2741BF9854A8}" name="A"/>
+    <tableColumn id="6" xr3:uid="{0AAAAD5F-87F5-4079-B655-DBCB9F44719E}" name="Column2"/>
+    <tableColumn id="7" xr3:uid="{34DBD401-82DF-4CA9-8469-44330E676397}" name="Column3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -398,8 +493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,6 +542,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -487,10 +583,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7DE3609-A5D2-47B7-8380-57296029D450}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O29" sqref="O29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -523,7 +619,1633 @@
         <v>16</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D56F3A9-F6F2-47B5-93D1-9F0D5E1E51F0}">
+  <dimension ref="A1:N100"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="3" max="3" width="41" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="4"/>
+    <col min="14" max="14" width="9.140625" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="J3" s="3">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="J4" s="3">
+        <v>25</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>SUM(B4)</f>
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <f>SUM(C4)</f>
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <f>SUM(A5+B5)</f>
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f t="shared" ref="A6:B33" si="0">SUM(B5)</f>
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <f t="shared" ref="C6:C69" si="1">SUM(A6+B6)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>34</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="4">
+        <v>0.02</v>
+      </c>
+      <c r="N9" s="5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>55</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10" s="5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>89</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>233</v>
+      </c>
+      <c r="J13" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>377</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>233</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>610</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>377</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>987</v>
+      </c>
+      <c r="J16" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>610</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>987</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>1597</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>987</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>1597</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>2584</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>1597</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>2584</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>4181</v>
+      </c>
+      <c r="J19" s="2"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>2584</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>4181</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>6765</v>
+      </c>
+      <c r="J20" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>4181</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>6765</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>10946</v>
+      </c>
+      <c r="J21" s="2"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>6765</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>10946</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>17711</v>
+      </c>
+      <c r="J22" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>10946</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>17711</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>28657</v>
+      </c>
+      <c r="J23" s="2"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>17711</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>28657</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>46368</v>
+      </c>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>28657</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>46368</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>75025</v>
+      </c>
+      <c r="J25" s="2"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>46368</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>75025</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>121393</v>
+      </c>
+      <c r="J26" s="2"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>75025</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>121393</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>196418</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>121393</v>
+      </c>
+      <c r="B28">
+        <f t="shared" si="0"/>
+        <v>196418</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="1"/>
+        <v>317811</v>
+      </c>
+      <c r="J28" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>196418</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>317811</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="1"/>
+        <v>514229</v>
+      </c>
+      <c r="J29" s="3">
+        <f>SUM(J2:J27)</f>
+        <v>158</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>317811</v>
+      </c>
+      <c r="B30">
+        <f t="shared" si="0"/>
+        <v>514229</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="1"/>
+        <v>832040</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>514229</v>
+      </c>
+      <c r="B31">
+        <f t="shared" si="0"/>
+        <v>832040</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="1"/>
+        <v>1346269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>832040</v>
+      </c>
+      <c r="B32">
+        <f t="shared" si="0"/>
+        <v>1346269</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="1"/>
+        <v>2178309</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="0"/>
+        <v>1346269</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="0"/>
+        <v>2178309</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="1"/>
+        <v>3524578</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <f t="shared" ref="A34:A97" si="2">SUM(B33)</f>
+        <v>2178309</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B97" si="3">SUM(C33)</f>
+        <v>3524578</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="1"/>
+        <v>5702887</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="2"/>
+        <v>3524578</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="3"/>
+        <v>5702887</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="1"/>
+        <v>9227465</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="2"/>
+        <v>5702887</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="3"/>
+        <v>9227465</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="1"/>
+        <v>14930352</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="2"/>
+        <v>9227465</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="3"/>
+        <v>14930352</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="1"/>
+        <v>24157817</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <f t="shared" si="2"/>
+        <v>14930352</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="3"/>
+        <v>24157817</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="1"/>
+        <v>39088169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="2"/>
+        <v>24157817</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="3"/>
+        <v>39088169</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="1"/>
+        <v>63245986</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="2"/>
+        <v>39088169</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="3"/>
+        <v>63245986</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="1"/>
+        <v>102334155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="2"/>
+        <v>63245986</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="3"/>
+        <v>102334155</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="1"/>
+        <v>165580141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <f t="shared" si="2"/>
+        <v>102334155</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="3"/>
+        <v>165580141</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="1"/>
+        <v>267914296</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="2"/>
+        <v>165580141</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="3"/>
+        <v>267914296</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="1"/>
+        <v>433494437</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="2"/>
+        <v>267914296</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="3"/>
+        <v>433494437</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="1"/>
+        <v>701408733</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="2"/>
+        <v>433494437</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="3"/>
+        <v>701408733</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="1"/>
+        <v>1134903170</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <f t="shared" si="2"/>
+        <v>701408733</v>
+      </c>
+      <c r="B46">
+        <f t="shared" si="3"/>
+        <v>1134903170</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="1"/>
+        <v>1836311903</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="2"/>
+        <v>1134903170</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="3"/>
+        <v>1836311903</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="1"/>
+        <v>2971215073</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="2"/>
+        <v>1836311903</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="3"/>
+        <v>2971215073</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="1"/>
+        <v>4807526976</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="2"/>
+        <v>2971215073</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="3"/>
+        <v>4807526976</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="1"/>
+        <v>7778742049</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <f t="shared" si="2"/>
+        <v>4807526976</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="3"/>
+        <v>7778742049</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="1"/>
+        <v>12586269025</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="2"/>
+        <v>7778742049</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="3"/>
+        <v>12586269025</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>20365011074</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="2"/>
+        <v>12586269025</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="3"/>
+        <v>20365011074</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>32951280099</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="2"/>
+        <v>20365011074</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="3"/>
+        <v>32951280099</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>53316291173</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <f t="shared" si="2"/>
+        <v>32951280099</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="3"/>
+        <v>53316291173</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>86267571272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="2"/>
+        <v>53316291173</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="3"/>
+        <v>86267571272</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>139583862445</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="2"/>
+        <v>86267571272</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="3"/>
+        <v>139583862445</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>225851433717</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="2"/>
+        <v>139583862445</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="3"/>
+        <v>225851433717</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>365435296162</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <f t="shared" si="2"/>
+        <v>225851433717</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="3"/>
+        <v>365435296162</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>591286729879</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="2"/>
+        <v>365435296162</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="3"/>
+        <v>591286729879</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="1"/>
+        <v>956722026041</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="2"/>
+        <v>591286729879</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="3"/>
+        <v>956722026041</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>1548008755920</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="2"/>
+        <v>956722026041</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="3"/>
+        <v>1548008755920</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>2504730781961</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="2"/>
+        <v>1548008755920</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="3"/>
+        <v>2504730781961</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>4052739537881</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="2"/>
+        <v>2504730781961</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="3"/>
+        <v>4052739537881</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>6557470319842</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="2"/>
+        <v>4052739537881</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="3"/>
+        <v>6557470319842</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>10610209857723</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="2"/>
+        <v>6557470319842</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="3"/>
+        <v>10610209857723</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>17167680177565</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="2"/>
+        <v>10610209857723</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="3"/>
+        <v>17167680177565</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>27777890035288</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="2"/>
+        <v>17167680177565</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="3"/>
+        <v>27777890035288</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>44945570212853</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="2"/>
+        <v>27777890035288</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="3"/>
+        <v>44945570212853</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>72723460248141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" si="2"/>
+        <v>44945570212853</v>
+      </c>
+      <c r="B69">
+        <f t="shared" si="3"/>
+        <v>72723460248141</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>117669030460994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="2"/>
+        <v>72723460248141</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="3"/>
+        <v>117669030460994</v>
+      </c>
+      <c r="C70">
+        <f t="shared" ref="C70:C100" si="4">SUM(A70+B70)</f>
+        <v>190392490709135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="2"/>
+        <v>117669030460994</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="3"/>
+        <v>190392490709135</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="4"/>
+        <v>308061521170129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="2"/>
+        <v>190392490709135</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="3"/>
+        <v>308061521170129</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="4"/>
+        <v>498454011879264</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="2"/>
+        <v>308061521170129</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="3"/>
+        <v>498454011879264</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="4"/>
+        <v>806515533049393</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="2"/>
+        <v>498454011879264</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="3"/>
+        <v>806515533049393</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="4"/>
+        <v>1304969544928657</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="2"/>
+        <v>806515533049393</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="3"/>
+        <v>1304969544928657</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="4"/>
+        <v>2111485077978050</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="2"/>
+        <v>1304969544928657</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="3"/>
+        <v>2111485077978050</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="4"/>
+        <v>3416454622906707</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="2"/>
+        <v>2111485077978050</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="3"/>
+        <v>3416454622906707</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="4"/>
+        <v>5527939700884757</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="2"/>
+        <v>3416454622906707</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="3"/>
+        <v>5527939700884757</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="4"/>
+        <v>8944394323791464</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="2"/>
+        <v>5527939700884757</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="3"/>
+        <v>8944394323791464</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="4"/>
+        <v>1.447233402467622E+16</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="2"/>
+        <v>8944394323791464</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="3"/>
+        <v>1.447233402467622E+16</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="4"/>
+        <v>2.3416728348467684E+16</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="2"/>
+        <v>1.447233402467622E+16</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="3"/>
+        <v>2.3416728348467684E+16</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="4"/>
+        <v>3.7889062373143904E+16</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="2"/>
+        <v>2.3416728348467684E+16</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="3"/>
+        <v>3.7889062373143904E+16</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="4"/>
+        <v>6.1305790721611584E+16</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="2"/>
+        <v>3.7889062373143904E+16</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="3"/>
+        <v>6.1305790721611584E+16</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="4"/>
+        <v>9.9194853094755488E+16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="2"/>
+        <v>6.1305790721611584E+16</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="3"/>
+        <v>9.9194853094755488E+16</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="4"/>
+        <v>1.6050064381636707E+17</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="2"/>
+        <v>9.9194853094755488E+16</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="3"/>
+        <v>1.6050064381636707E+17</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="4"/>
+        <v>2.5969549691112256E+17</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="2"/>
+        <v>1.6050064381636707E+17</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="3"/>
+        <v>2.5969549691112256E+17</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="4"/>
+        <v>4.2019614072748966E+17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="2"/>
+        <v>2.5969549691112256E+17</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="3"/>
+        <v>4.2019614072748966E+17</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="4"/>
+        <v>6.7989163763861222E+17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="2"/>
+        <v>4.2019614072748966E+17</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="3"/>
+        <v>6.7989163763861222E+17</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="4"/>
+        <v>1.1000877783661019E+18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="2"/>
+        <v>6.7989163763861222E+17</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="3"/>
+        <v>1.1000877783661019E+18</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="4"/>
+        <v>1.779979416004714E+18</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="2"/>
+        <v>1.1000877783661019E+18</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="3"/>
+        <v>1.779979416004714E+18</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="4"/>
+        <v>2.880067194370816E+18</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="2"/>
+        <v>1.779979416004714E+18</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="3"/>
+        <v>2.880067194370816E+18</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="4"/>
+        <v>4.6600466103755305E+18</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="2"/>
+        <v>2.880067194370816E+18</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="3"/>
+        <v>4.6600466103755305E+18</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="4"/>
+        <v>7.5401138047463465E+18</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="2"/>
+        <v>4.6600466103755305E+18</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="3"/>
+        <v>7.5401138047463465E+18</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="4"/>
+        <v>1.2200160415121877E+19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="2"/>
+        <v>7.5401138047463465E+18</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="3"/>
+        <v>1.2200160415121877E+19</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="4"/>
+        <v>1.9740274219868226E+19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="2"/>
+        <v>1.2200160415121877E+19</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="3"/>
+        <v>1.9740274219868226E+19</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="4"/>
+        <v>3.19404346349901E+19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="2"/>
+        <v>1.9740274219868226E+19</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="3"/>
+        <v>3.19404346349901E+19</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="4"/>
+        <v>5.1680708854858326E+19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="2"/>
+        <v>3.19404346349901E+19</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="3"/>
+        <v>5.1680708854858326E+19</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="4"/>
+        <v>8.3621143489848426E+19</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" ref="A98:A100" si="5">SUM(B97)</f>
+        <v>5.1680708854858326E+19</v>
+      </c>
+      <c r="B98">
+        <f t="shared" ref="B98:B100" si="6">SUM(C97)</f>
+        <v>8.3621143489848426E+19</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="4"/>
+        <v>1.3530185234470676E+20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="5"/>
+        <v>8.3621143489848426E+19</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="6"/>
+        <v>1.3530185234470676E+20</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="4"/>
+        <v>2.189229958345552E+20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="5"/>
+        <v>1.3530185234470676E+20</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="6"/>
+        <v>2.189229958345552E+20</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="4"/>
+        <v>3.54224848179262E+20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F957C-6BB8-47A2-BEDD-D98CDAB17462}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="5"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74303261-EA03-4787-9F4C-22E5B3458808}">
+  <dimension ref="A1:G17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.85546875" customWidth="1"/>
+    <col min="5" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E10">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E17">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176ABC77-A371-44F6-B5BA-68D22071F8D8}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/test/resources/data/Test.xlsx
+++ b/src/test/resources/data/Test.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DEV\ProjectsWorkSpace\2023\TestAutomation\src\test\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799AC02E-1C90-4BD6-8CBC-E06306F7412A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFC1B84F-8348-4390-BD49-FFEDFF397FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Smoke" sheetId="1" r:id="rId1"/>
     <sheet name="Re" sheetId="2" r:id="rId2"/>
     <sheet name="Titles" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet2" sheetId="5" r:id="rId5"/>
+    <sheet name="EmailData" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet3" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet4" sheetId="7" r:id="rId7"/>
   </sheets>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="47">
   <si>
     <t>TCID</t>
   </si>
@@ -145,6 +145,33 @@
   </si>
   <si>
     <t>jghj</t>
+  </si>
+  <si>
+    <t>Without@</t>
+  </si>
+  <si>
+    <t>WithoutExt</t>
+  </si>
+  <si>
+    <t>withoutAddress</t>
+  </si>
+  <si>
+    <t>Test1</t>
+  </si>
+  <si>
+    <t>DataName</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Invalid01</t>
+  </si>
+  <si>
+    <t>Invalid02</t>
+  </si>
+  <si>
+    <t>Invalid03</t>
   </si>
 </sst>
 </file>
@@ -155,10 +182,24 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00[$৳-845]_-;\-* #,##0.00[$৳-845]_-;_-* &quot;-&quot;??[$৳-845]_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.0[$৳-845]_-;\-* #,##0.0[$৳-845]_-;_-* &quot;-&quot;??[$৳-845]_-;_-@_-"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -181,18 +222,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -494,7 +538,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -636,9 +680,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D56F3A9-F6F2-47B5-93D1-9F0D5E1E51F0}">
   <dimension ref="A1:N100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2111,17 +2155,68 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{379F957C-6BB8-47A2-BEDD-D98CDAB17462}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="10.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" style="5" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="5"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{E3F96D50-5504-490F-90C6-570A9DC98E74}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
